--- a/2022_designAnalysisScripts/2022-11-20_gblock/2023-1-23_designDataWithPercentGpA.xlsx
+++ b/2022_designAnalysisScripts/2022-11-20_gblock/2023-1-23_designDataWithPercentGpA.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Sequence-Design\2022_designAnalysisScripts\2022-11-20_gblock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjowl\github\Sequence-Design\2022_designAnalysisScripts\2022-11-20_gblock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{92F8D7CB-DFC2-46BC-B1B4-47FD962968A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746F7BBE-E121-469A-B955-80D56604B808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="47664" yWindow="5328" windowWidth="23040" windowHeight="12012"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="151">
   <si>
     <t>2023-1-9 Data</t>
   </si>
@@ -483,17 +470,20 @@
   </si>
   <si>
     <t>G5 2 samples</t>
+  </si>
+  <si>
+    <t>No outliers/high standard deviations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,25 +684,25 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Accent" xfId="7"/>
-    <cellStyle name="Accent 1" xfId="8"/>
-    <cellStyle name="Accent 2" xfId="9"/>
-    <cellStyle name="Accent 3" xfId="10"/>
+    <cellStyle name="Accent" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Bad" xfId="4" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Error" xfId="11"/>
-    <cellStyle name="Footnote" xfId="12"/>
+    <cellStyle name="Error" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Good" xfId="3" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading" xfId="13"/>
+    <cellStyle name="Heading" xfId="13" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="14"/>
+    <cellStyle name="Hyperlink" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="6" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="15"/>
-    <cellStyle name="Status" xfId="16"/>
-    <cellStyle name="Text" xfId="17"/>
-    <cellStyle name="Warning" xfId="18"/>
+    <cellStyle name="Result" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Status" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Text" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Warning" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2692,6 +2682,943 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TOXGREEN low</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> standard Dev.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-A08D-49C1-874A-78779BB3AE9C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A08D-49C1-874A-78779BB3AE9C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-A08D-49C1-874A-78779BB3AE9C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A08D-49C1-874A-78779BB3AE9C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-A08D-49C1-874A-78779BB3AE9C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-A08D-49C1-874A-78779BB3AE9C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-A08D-49C1-874A-78779BB3AE9C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-A08D-49C1-874A-78779BB3AE9C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-A08D-49C1-874A-78779BB3AE9C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.57324409448818903"/>
+                  <c:y val="-0.65689231554389038"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="1"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$134:$G$148</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>1.9941908896305978</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3008584828140379</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.1781264471260853</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.901183895972399</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.1312295769382907</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.6752602399796513E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.9969303719978565</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2518975718286138</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.9738647678503263</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.373947200370873</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>6.9603377306880976</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.2217359185169676</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.22591403847484617</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.24475778560940423</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.0807017056054762</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$134:$G$148</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>1.9941908896305978</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3008584828140379</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.1781264471260853</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.901183895972399</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.1312295769382907</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.6752602399796513E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.9969303719978565</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2518975718286138</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.9738647678503263</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.373947200370873</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>6.9603377306880976</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.2217359185169676</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.22591403847484617</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.24475778560940423</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.0807017056054762</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$134:$E$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-46.956899999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-33.175899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-42.155999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-46.848999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.9169700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-18.024000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-24.5886</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-12.117599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22.721900000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-19.871200000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-14.2117</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-17.953700000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-36.766300000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-18.429099999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-23.184699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$134:$F$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>143.46591295131202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.098517481757277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155.06923400959357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103.91681977618174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.922618053401422</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.957209441371901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.573074995824292</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.048008780930111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>102.58591403840146</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.00263619192566</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81.137700098007187</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71.355192890434978</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>113.9052329768586</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44.477319907418462</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>88.949867570211666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A08D-49C1-874A-78779BB3AE9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="892591936"/>
+        <c:axId val="892588608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="892591936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="892588608"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="892588608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent GpA</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="892591936"/>
+        <c:crossesAt val="-50"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2812,6 +3739,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4360,10 +5327,526 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="9357207" y="24496410"/>
+    <xdr:pos x="8244687" y="27582510"/>
     <xdr:ext cx="5759622" cy="3239627"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4389,7 +5872,7 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="1370898" y="24120317"/>
+    <xdr:pos x="258378" y="27206417"/>
     <xdr:ext cx="5759622" cy="3239627"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4415,7 +5898,7 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="3732824" y="27784348"/>
+    <xdr:pos x="220004" y="30794248"/>
     <xdr:ext cx="5759622" cy="3239627"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4440,6 +5923,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>49530</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>55880</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C36879-E56B-B240-C70C-E0176FE9A8F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4732,33 +6251,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="I156" sqref="I156"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.09765625" customWidth="1"/>
+    <col min="2" max="2" width="25.296875" customWidth="1"/>
+    <col min="3" max="3" width="18.296875" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.640625" customWidth="1"/>
-    <col min="7" max="7" width="21.92578125" customWidth="1"/>
-    <col min="8" max="19" width="10.640625" customWidth="1"/>
+    <col min="5" max="5" width="22.3984375" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" customWidth="1"/>
+    <col min="7" max="7" width="21.8984375" customWidth="1"/>
+    <col min="8" max="19" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.6">
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4768,7 +6287,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="14.6">
+    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4788,7 +6307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.6">
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4808,7 +6327,7 @@
         <v>10.080269170829158</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.6">
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -4828,7 +6347,7 @@
         <v>0.50849902274845771</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.6">
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4848,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.6">
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4868,7 +6387,7 @@
         <v>6.1503495005731139</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.6">
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -4888,7 +6407,7 @@
         <v>1.5486798795384369</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.6">
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -4908,7 +6427,7 @@
         <v>0.96137648868204839</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.6">
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -4928,7 +6447,7 @@
         <v>1.0717647406494411</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.6">
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -4948,7 +6467,7 @@
         <v>26.411234112626754</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.6">
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -4968,7 +6487,7 @@
         <v>4.0958509136995742</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.6">
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -4988,7 +6507,7 @@
         <v>0.42403639543253369</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.6">
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -5008,7 +6527,7 @@
         <v>5.8854118433410143</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.6">
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -5028,7 +6547,7 @@
         <v>3.2942904687165521E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.6">
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -5048,7 +6567,7 @@
         <v>0.53142652530340184</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.6">
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -5068,7 +6587,7 @@
         <v>16.978663003153027</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.6">
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -5088,7 +6607,7 @@
         <v>1.4267585261522946</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.6">
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -5108,7 +6627,7 @@
         <v>4.2215624224662589</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.6">
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -5128,7 +6647,7 @@
         <v>4.2246384660770726</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.6">
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -5148,7 +6667,7 @@
         <v>1.1494309725354279</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.6">
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -5168,7 +6687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.6">
+    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -5188,7 +6707,7 @@
         <v>11.090847711931845</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.6">
+    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -5208,7 +6727,7 @@
         <v>1.1754597158970848</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.6">
+    <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -5228,7 +6747,7 @@
         <v>0.52349997563126527</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.6">
+    <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -5248,7 +6767,7 @@
         <v>8.6752602399796513E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.6">
+    <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -5268,7 +6787,7 @@
         <v>25.333785066594373</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.6">
+    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -5288,7 +6807,7 @@
         <v>1.9941908896305978</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.6">
+    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -5308,7 +6827,7 @@
         <v>1.3008584828140379</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.6">
+    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -5328,7 +6847,7 @@
         <v>5.1781264471260853</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.6">
+    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -5348,7 +6867,7 @@
         <v>3.9738647678503263</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.6">
+    <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -5368,7 +6887,7 @@
         <v>3.373947200370873</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.6">
+    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -5388,7 +6907,7 @@
         <v>17.180979700580735</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.6">
+    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -5408,7 +6927,7 @@
         <v>3.2217359185169676</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.6">
+    <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -5428,12 +6947,12 @@
         <v>0.22591403847484617</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.6">
+    <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -5453,7 +6972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.6">
+    <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
@@ -5473,7 +6992,7 @@
         <v>8.1539150587083267</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.6">
+    <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -5493,7 +7012,7 @@
         <v>0.39715412520963678</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.6">
+    <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -5513,7 +7032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.6">
+    <row r="41" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -5533,7 +7052,7 @@
         <v>4.0361595671064681</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.6">
+    <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -5553,7 +7072,7 @@
         <v>1.4963476187852434</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.6">
+    <row r="43" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>11</v>
       </c>
@@ -5573,7 +7092,7 @@
         <v>0.47852897064559685</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.6">
+    <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -5593,7 +7112,7 @@
         <v>0.85744847856918971</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.6">
+    <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
@@ -5613,7 +7132,7 @@
         <v>1.2573786816789099</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.6">
+    <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -5633,7 +7152,7 @@
         <v>2.2074686461128317</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.6">
+    <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -5653,7 +7172,7 @@
         <v>1.2804968444682894</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.6">
+    <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -5673,7 +7192,7 @@
         <v>9.2221685162143174</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.6">
+    <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
@@ -5693,7 +7212,7 @@
         <v>0.60827807213928065</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.6">
+    <row r="50" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -5713,7 +7232,7 @@
         <v>1.4035337505242038</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.6">
+    <row r="51" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
@@ -5733,7 +7252,7 @@
         <v>28.872029465513975</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.6">
+    <row r="52" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
@@ -5753,7 +7272,7 @@
         <v>1.7671020727096256</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.6">
+    <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
@@ -5773,7 +7292,7 @@
         <v>0.39718566510166625</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.6">
+    <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="str">
         <f t="shared" ref="A54:A69" si="0">CONCATENATE("OD Normalized ",A38)</f>
         <v>OD Normalized Gpa</v>
@@ -5794,7 +7313,7 @@
         <v>7.7585003575736762</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.6">
+    <row r="55" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>OD Normalized G83I</v>
@@ -5815,7 +7334,7 @@
         <v>0.10316457014902523</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.6">
+    <row r="56" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>OD Normalized No TM</v>
@@ -5836,7 +7355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="14.6">
+    <row r="57" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>OD Normalized N5</v>
@@ -5857,7 +7376,7 @@
         <v>4.4032957727005053</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="14.6">
+    <row r="58" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>OD Normalized P3</v>
@@ -5878,7 +7397,7 @@
         <v>4.3950253897824041</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14.6">
+    <row r="59" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="str">
         <f t="shared" si="0"/>
         <v>OD Normalized P4</v>
@@ -5899,7 +7418,7 @@
         <v>1.3922388304217539</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="14.6">
+    <row r="60" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="str">
         <f t="shared" si="0"/>
         <v>OD Normalized L7</v>
@@ -5920,7 +7439,7 @@
         <v>0.24475778560940423</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="14.6">
+    <row r="61" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="str">
         <f t="shared" si="0"/>
         <v>OD Normalized L8</v>
@@ -5941,7 +7460,7 @@
         <v>2.0807017056054762</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="14.6">
+    <row r="62" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="str">
         <f t="shared" si="0"/>
         <v>OD Normalized R1</v>
@@ -5962,7 +7481,7 @@
         <v>2.1312295769382907</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="14.6">
+    <row r="63" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="str">
         <f t="shared" si="0"/>
         <v>OD Normalized R4</v>
@@ -5983,7 +7502,7 @@
         <v>0.9969303719978565</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14.6">
+    <row r="64" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="str">
         <f t="shared" si="0"/>
         <v>OD Normalized R5</v>
@@ -6004,7 +7523,7 @@
         <v>11.64213617444482</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.6">
+    <row r="65" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="str">
         <f t="shared" si="0"/>
         <v>OD Normalized R6</v>
@@ -6025,7 +7544,7 @@
         <v>1.2518975718286138</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.6">
+    <row r="66" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="str">
         <f t="shared" si="0"/>
         <v>OD Normalized G3</v>
@@ -6046,7 +7565,7 @@
         <v>1.4558841543602732</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="14.6">
+    <row r="67" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="str">
         <f t="shared" si="0"/>
         <v>OD Normalized G5</v>
@@ -6067,7 +7586,7 @@
         <v>28.318627297907064</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="14.6">
+    <row r="68" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="str">
         <f t="shared" si="0"/>
         <v>OD Normalized G6</v>
@@ -6088,7 +7607,7 @@
         <v>3.901183895972399</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="14.6">
+    <row r="69" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="str">
         <f t="shared" si="0"/>
         <v>OD Normalized M3</v>
@@ -6109,7 +7628,7 @@
         <v>0.24743639311220256</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>146</v>
       </c>
@@ -6129,7 +7648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -6149,7 +7668,7 @@
         <v>5.0498475125523434</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -6169,7 +7688,7 @@
         <v>0.91393031567757432</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -6189,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>40</v>
       </c>
@@ -6209,7 +7728,7 @@
         <v>1.6868489591953009</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -6229,7 +7748,7 @@
         <v>6.226843930394546</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -6249,7 +7768,7 @@
         <v>1.5815239116237909</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -6269,7 +7788,7 @@
         <v>15.198235322503628</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>48</v>
       </c>
@@ -6289,7 +7808,7 @@
         <v>27.625392989555912</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -6309,7 +7828,7 @@
         <v>28.360731672528143</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>45</v>
       </c>
@@ -6329,7 +7848,7 @@
         <v>11.046342898519555</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -6349,7 +7868,7 @@
         <v>6.9603377306880976</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>148</v>
       </c>
@@ -6369,7 +7888,7 @@
         <v>3.5869037147407008</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>149</v>
       </c>
@@ -6389,7 +7908,7 @@
         <v>6.2303857594835907</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>51</v>
       </c>
@@ -6448,7 +7967,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>68</v>
       </c>
@@ -6509,7 +8028,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>74</v>
       </c>
@@ -6570,7 +8089,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>78</v>
       </c>
@@ -6631,7 +8150,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>82</v>
       </c>
@@ -6692,7 +8211,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -6750,7 +8269,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -6808,7 +8327,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -6869,7 +8388,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -6930,7 +8449,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>104</v>
       </c>
@@ -6991,7 +8510,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>108</v>
       </c>
@@ -7052,7 +8571,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -7111,7 +8630,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -7170,7 +8689,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>116</v>
       </c>
@@ -7231,7 +8750,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>121</v>
       </c>
@@ -7292,7 +8811,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>125</v>
       </c>
@@ -7353,7 +8872,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>129</v>
       </c>
@@ -7414,7 +8933,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>133</v>
       </c>
@@ -7475,7 +8994,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>137</v>
       </c>
@@ -7536,7 +9055,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>141</v>
       </c>
@@ -7595,12 +9114,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>68</v>
       </c>
@@ -7659,7 +9178,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>74</v>
       </c>
@@ -7718,7 +9237,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>78</v>
       </c>
@@ -7777,7 +9296,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>91</v>
       </c>
@@ -7833,7 +9352,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>95</v>
       </c>
@@ -7892,7 +9411,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -7949,7 +9468,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>121</v>
       </c>
@@ -8008,7 +9527,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>129</v>
       </c>
@@ -8067,7 +9586,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>133</v>
       </c>
@@ -8126,12 +9645,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>82</v>
       </c>
@@ -8190,7 +9709,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>87</v>
       </c>
@@ -8246,7 +9765,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>100</v>
       </c>
@@ -8305,7 +9824,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>104</v>
       </c>
@@ -8364,7 +9883,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>108</v>
       </c>
@@ -8423,7 +9942,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>100</v>
       </c>
@@ -8480,7 +9999,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>116</v>
       </c>
@@ -8539,7 +10058,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -8598,7 +10117,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>137</v>
       </c>
@@ -8657,7 +10176,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>141</v>
       </c>
@@ -8714,14 +10233,951 @@
         <v>86</v>
       </c>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F131" s="4"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>150</v>
+      </c>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" spans="1:19">
-      <c r="D133" s="3"/>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>51</v>
+      </c>
+      <c r="B133" t="s">
+        <v>52</v>
+      </c>
+      <c r="C133" t="s">
+        <v>53</v>
+      </c>
+      <c r="D133" t="s">
+        <v>54</v>
+      </c>
+      <c r="E133" t="s">
+        <v>55</v>
+      </c>
+      <c r="F133" t="s">
+        <v>4</v>
+      </c>
+      <c r="G133" t="s">
+        <v>6</v>
+      </c>
+      <c r="H133" t="s">
+        <v>56</v>
+      </c>
+      <c r="I133" t="s">
+        <v>57</v>
+      </c>
+      <c r="J133" t="s">
+        <v>58</v>
+      </c>
+      <c r="K133" t="s">
+        <v>59</v>
+      </c>
+      <c r="L133" t="s">
+        <v>60</v>
+      </c>
+      <c r="M133" t="s">
+        <v>61</v>
+      </c>
+      <c r="N133" t="s">
+        <v>62</v>
+      </c>
+      <c r="O133" t="s">
+        <v>63</v>
+      </c>
+      <c r="P133" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>65</v>
+      </c>
+      <c r="R133" t="s">
+        <v>66</v>
+      </c>
+      <c r="S133" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>68</v>
+      </c>
+      <c r="B134" t="s">
+        <v>69</v>
+      </c>
+      <c r="C134" t="s">
+        <v>70</v>
+      </c>
+      <c r="D134" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134">
+        <v>-46.956899999999997</v>
+      </c>
+      <c r="F134">
+        <v>143.46591295131202</v>
+      </c>
+      <c r="G134">
+        <v>1.9941908896305978</v>
+      </c>
+      <c r="H134" t="s">
+        <v>71</v>
+      </c>
+      <c r="I134">
+        <v>-43.674599999999998</v>
+      </c>
+      <c r="J134">
+        <v>-30.256900000000002</v>
+      </c>
+      <c r="K134">
+        <v>26.975000000000001</v>
+      </c>
+      <c r="L134" t="s">
+        <v>72</v>
+      </c>
+      <c r="M134">
+        <v>4</v>
+      </c>
+      <c r="N134">
+        <v>-853.42</v>
+      </c>
+      <c r="O134">
+        <v>-0.3649</v>
+      </c>
+      <c r="P134">
+        <v>-0.35835</v>
+      </c>
+      <c r="Q134">
+        <v>-3.6735000000000002</v>
+      </c>
+      <c r="R134">
+        <v>0.236988</v>
+      </c>
+      <c r="S134" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>74</v>
+      </c>
+      <c r="B135" t="s">
+        <v>75</v>
+      </c>
+      <c r="C135" t="s">
+        <v>76</v>
+      </c>
+      <c r="D135" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135">
+        <v>-33.175899999999999</v>
+      </c>
+      <c r="F135">
+        <v>50.098517481757277</v>
+      </c>
+      <c r="G135">
+        <v>1.3008584828140379</v>
+      </c>
+      <c r="H135" t="s">
+        <v>71</v>
+      </c>
+      <c r="I135">
+        <v>-40.406199999999998</v>
+      </c>
+      <c r="J135">
+        <v>-24.622599999999998</v>
+      </c>
+      <c r="K135">
+        <v>31.853000000000002</v>
+      </c>
+      <c r="L135" t="s">
+        <v>77</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>-767.16</v>
+      </c>
+      <c r="O135">
+        <v>-5.0808999999999997</v>
+      </c>
+      <c r="P135">
+        <v>-0.36326000000000003</v>
+      </c>
+      <c r="Q135">
+        <v>1.2197</v>
+      </c>
+      <c r="R135">
+        <v>-0.35358000000000001</v>
+      </c>
+      <c r="S135" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>82</v>
+      </c>
+      <c r="B136" t="s">
+        <v>83</v>
+      </c>
+      <c r="C136" t="s">
+        <v>84</v>
+      </c>
+      <c r="D136" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136">
+        <v>-42.155999999999999</v>
+      </c>
+      <c r="F136">
+        <v>155.06923400959357</v>
+      </c>
+      <c r="G136">
+        <v>5.1781264471260853</v>
+      </c>
+      <c r="H136" t="s">
+        <v>71</v>
+      </c>
+      <c r="I136">
+        <v>-50.616900000000001</v>
+      </c>
+      <c r="J136">
+        <v>-12.7387</v>
+      </c>
+      <c r="K136">
+        <v>21.2</v>
+      </c>
+      <c r="L136" t="s">
+        <v>85</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>-1161.29</v>
+      </c>
+      <c r="O136">
+        <v>-3.1177000000000001</v>
+      </c>
+      <c r="P136">
+        <v>8.7040000000000006E-2</v>
+      </c>
+      <c r="Q136">
+        <v>2.4624000000000001</v>
+      </c>
+      <c r="R136">
+        <v>-0.2127</v>
+      </c>
+      <c r="S136" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>91</v>
+      </c>
+      <c r="B137" t="s">
+        <v>92</v>
+      </c>
+      <c r="D137" t="s">
+        <v>49</v>
+      </c>
+      <c r="E137">
+        <v>-46.848999999999997</v>
+      </c>
+      <c r="F137">
+        <v>103.91681977618174</v>
+      </c>
+      <c r="G137">
+        <v>3.901183895972399</v>
+      </c>
+      <c r="H137" t="s">
+        <v>71</v>
+      </c>
+      <c r="I137">
+        <v>-63.137799999999999</v>
+      </c>
+      <c r="J137">
+        <v>-7.4076999999999904</v>
+      </c>
+      <c r="K137">
+        <v>23.696000000000002</v>
+      </c>
+      <c r="L137" t="s">
+        <v>93</v>
+      </c>
+      <c r="M137">
+        <v>3</v>
+      </c>
+      <c r="N137">
+        <v>-912.00999999999897</v>
+      </c>
+      <c r="O137">
+        <v>10.608699999999899</v>
+      </c>
+      <c r="P137">
+        <v>-0.81969999999999998</v>
+      </c>
+      <c r="Q137">
+        <v>0.53839999999999499</v>
+      </c>
+      <c r="R137">
+        <v>1.2316100000000001</v>
+      </c>
+      <c r="S137" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>95</v>
+      </c>
+      <c r="B138" t="s">
+        <v>96</v>
+      </c>
+      <c r="C138" t="s">
+        <v>97</v>
+      </c>
+      <c r="D138" t="s">
+        <v>43</v>
+      </c>
+      <c r="E138">
+        <v>-7.9169700000000001</v>
+      </c>
+      <c r="F138">
+        <v>76.922618053401422</v>
+      </c>
+      <c r="G138">
+        <v>2.1312295769382907</v>
+      </c>
+      <c r="H138" t="s">
+        <v>98</v>
+      </c>
+      <c r="I138">
+        <v>-29.916499999999999</v>
+      </c>
+      <c r="J138">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="K138">
+        <v>21.936</v>
+      </c>
+      <c r="L138" t="s">
+        <v>99</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="N138">
+        <v>-606.15</v>
+      </c>
+      <c r="O138">
+        <v>6.0362999999999998</v>
+      </c>
+      <c r="P138">
+        <v>-0.15847</v>
+      </c>
+      <c r="Q138">
+        <v>-2.8815</v>
+      </c>
+      <c r="R138">
+        <v>0.53186999999999995</v>
+      </c>
+      <c r="S138" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>100</v>
+      </c>
+      <c r="B139" t="s">
+        <v>101</v>
+      </c>
+      <c r="C139" t="s">
+        <v>102</v>
+      </c>
+      <c r="D139" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139">
+        <v>-18.024000000000001</v>
+      </c>
+      <c r="F139">
+        <v>38.957209441371901</v>
+      </c>
+      <c r="G139">
+        <v>8.6752602399796513E-2</v>
+      </c>
+      <c r="H139" t="s">
+        <v>98</v>
+      </c>
+      <c r="I139">
+        <v>-36.443100000000001</v>
+      </c>
+      <c r="J139">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="K139">
+        <v>18.408000000000001</v>
+      </c>
+      <c r="L139" t="s">
+        <v>103</v>
+      </c>
+      <c r="M139">
+        <v>4</v>
+      </c>
+      <c r="N139">
+        <v>-856.82</v>
+      </c>
+      <c r="O139">
+        <v>5.7473999999999998</v>
+      </c>
+      <c r="P139">
+        <v>-0.2505</v>
+      </c>
+      <c r="Q139">
+        <v>-4.6509</v>
+      </c>
+      <c r="R139">
+        <v>1.25509</v>
+      </c>
+      <c r="S139" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>108</v>
+      </c>
+      <c r="B140" t="s">
+        <v>109</v>
+      </c>
+      <c r="C140" t="s">
+        <v>110</v>
+      </c>
+      <c r="D140" t="s">
+        <v>44</v>
+      </c>
+      <c r="E140">
+        <v>-24.5886</v>
+      </c>
+      <c r="F140">
+        <v>37.573074995824292</v>
+      </c>
+      <c r="G140">
+        <v>0.9969303719978565</v>
+      </c>
+      <c r="H140" t="s">
+        <v>98</v>
+      </c>
+      <c r="I140">
+        <v>-46.728299999999997</v>
+      </c>
+      <c r="J140">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="K140">
+        <v>21.646999999999998</v>
+      </c>
+      <c r="L140" t="s">
+        <v>111</v>
+      </c>
+      <c r="M140">
+        <v>3</v>
+      </c>
+      <c r="N140">
+        <v>-935.13</v>
+      </c>
+      <c r="O140">
+        <v>2.7746</v>
+      </c>
+      <c r="P140">
+        <v>0.31133</v>
+      </c>
+      <c r="Q140">
+        <v>-2.4072</v>
+      </c>
+      <c r="R140">
+        <v>0.13644999999999999</v>
+      </c>
+      <c r="S140" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>113</v>
+      </c>
+      <c r="B141" t="s">
+        <v>114</v>
+      </c>
+      <c r="C141" s="3"/>
+      <c r="D141" t="s">
+        <v>46</v>
+      </c>
+      <c r="E141">
+        <v>-12.117599999999999</v>
+      </c>
+      <c r="F141">
+        <v>32.048008780930111</v>
+      </c>
+      <c r="G141">
+        <v>1.2518975718286138</v>
+      </c>
+      <c r="H141" t="s">
+        <v>98</v>
+      </c>
+      <c r="I141">
+        <v>-32.759599999999999</v>
+      </c>
+      <c r="J141">
+        <v>-10.5221999999999</v>
+      </c>
+      <c r="K141">
+        <v>31.1649999999999</v>
+      </c>
+      <c r="L141" t="s">
+        <v>115</v>
+      </c>
+      <c r="M141">
+        <v>2</v>
+      </c>
+      <c r="N141">
+        <v>-646.27999999999895</v>
+      </c>
+      <c r="O141">
+        <v>-6.0608000000000004</v>
+      </c>
+      <c r="P141">
+        <v>6.6860000000000003E-2</v>
+      </c>
+      <c r="Q141">
+        <v>2.5555999999999899</v>
+      </c>
+      <c r="R141">
+        <v>-0.93713999999999997</v>
+      </c>
+      <c r="S141" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>116</v>
+      </c>
+      <c r="B142" t="s">
+        <v>117</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D142" t="s">
+        <v>18</v>
+      </c>
+      <c r="E142">
+        <v>-22.721900000000002</v>
+      </c>
+      <c r="F142">
+        <v>102.58591403840146</v>
+      </c>
+      <c r="G142">
+        <v>3.9738647678503263</v>
+      </c>
+      <c r="H142" t="s">
+        <v>119</v>
+      </c>
+      <c r="I142">
+        <v>-43.788499999999999</v>
+      </c>
+      <c r="J142">
+        <v>0.12819999999999901</v>
+      </c>
+      <c r="K142">
+        <v>20.938999999999901</v>
+      </c>
+      <c r="L142" t="s">
+        <v>120</v>
+      </c>
+      <c r="M142">
+        <v>4</v>
+      </c>
+      <c r="N142">
+        <v>-1038.1199999999999</v>
+      </c>
+      <c r="O142">
+        <v>4.4603000000000002</v>
+      </c>
+      <c r="P142">
+        <v>-0.21790999999999899</v>
+      </c>
+      <c r="Q142">
+        <v>-6.3366999999999898</v>
+      </c>
+      <c r="R142">
+        <v>1.1008799999999901</v>
+      </c>
+      <c r="S142" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>121</v>
+      </c>
+      <c r="B143" t="s">
+        <v>122</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D143" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143">
+        <v>-19.871200000000002</v>
+      </c>
+      <c r="F143">
+        <v>66.00263619192566</v>
+      </c>
+      <c r="G143">
+        <v>3.373947200370873</v>
+      </c>
+      <c r="H143" t="s">
+        <v>119</v>
+      </c>
+      <c r="I143">
+        <v>-34.215200000000003</v>
+      </c>
+      <c r="J143">
+        <v>0.1971</v>
+      </c>
+      <c r="K143">
+        <v>14.147</v>
+      </c>
+      <c r="L143" t="s">
+        <v>124</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>-869.84</v>
+      </c>
+      <c r="O143">
+        <v>6.0829000000000004</v>
+      </c>
+      <c r="P143">
+        <v>-0.59948999999999997</v>
+      </c>
+      <c r="Q143">
+        <v>6.4600000000000005E-2</v>
+      </c>
+      <c r="R143">
+        <v>0.61556</v>
+      </c>
+      <c r="S143" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>125</v>
+      </c>
+      <c r="B144" t="s">
+        <v>126</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D144" t="s">
+        <v>20</v>
+      </c>
+      <c r="E144">
+        <v>-14.2117</v>
+      </c>
+      <c r="F144">
+        <v>81.137700098007187</v>
+      </c>
+      <c r="G144">
+        <v>6.9603377306880976</v>
+      </c>
+      <c r="H144" t="s">
+        <v>119</v>
+      </c>
+      <c r="I144">
+        <v>-44.609000000000002</v>
+      </c>
+      <c r="J144">
+        <v>0.36549999999999999</v>
+      </c>
+      <c r="K144">
+        <v>30.032</v>
+      </c>
+      <c r="L144" t="s">
+        <v>128</v>
+      </c>
+      <c r="M144">
+        <v>3</v>
+      </c>
+      <c r="N144">
+        <v>-959.07</v>
+      </c>
+      <c r="O144">
+        <v>-1.8541000000000001</v>
+      </c>
+      <c r="P144">
+        <v>5.8409999999999997E-2</v>
+      </c>
+      <c r="Q144">
+        <v>1.5969</v>
+      </c>
+      <c r="R144">
+        <v>-0.26731199999999999</v>
+      </c>
+      <c r="S144" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>129</v>
+      </c>
+      <c r="B145" t="s">
+        <v>130</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D145" t="s">
+        <v>21</v>
+      </c>
+      <c r="E145">
+        <v>-17.953700000000001</v>
+      </c>
+      <c r="F145">
+        <v>71.355192890434978</v>
+      </c>
+      <c r="G145">
+        <v>3.2217359185169676</v>
+      </c>
+      <c r="H145" t="s">
+        <v>119</v>
+      </c>
+      <c r="I145">
+        <v>-42.442799999999998</v>
+      </c>
+      <c r="J145">
+        <v>7.1832000000000003</v>
+      </c>
+      <c r="K145">
+        <v>17.306000000000001</v>
+      </c>
+      <c r="L145" t="s">
+        <v>132</v>
+      </c>
+      <c r="M145">
+        <v>3</v>
+      </c>
+      <c r="N145">
+        <v>-900.47</v>
+      </c>
+      <c r="O145">
+        <v>-4.6740000000000004</v>
+      </c>
+      <c r="P145">
+        <v>-1.03752</v>
+      </c>
+      <c r="Q145">
+        <v>-5.1502999999999997</v>
+      </c>
+      <c r="R145">
+        <v>-0.12353</v>
+      </c>
+      <c r="S145" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>133</v>
+      </c>
+      <c r="B146" t="s">
+        <v>134</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D146" t="s">
+        <v>22</v>
+      </c>
+      <c r="E146">
+        <v>-36.766300000000001</v>
+      </c>
+      <c r="F146">
+        <v>113.9052329768586</v>
+      </c>
+      <c r="G146">
+        <v>0.22591403847484617</v>
+      </c>
+      <c r="H146" t="s">
+        <v>119</v>
+      </c>
+      <c r="I146">
+        <v>-45.634399999999999</v>
+      </c>
+      <c r="J146">
+        <v>-13.468999999999999</v>
+      </c>
+      <c r="K146">
+        <v>22.335999999999999</v>
+      </c>
+      <c r="L146" t="s">
+        <v>136</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>-806.22</v>
+      </c>
+      <c r="O146">
+        <v>3.7677999999999998</v>
+      </c>
+      <c r="P146">
+        <v>-0.28108</v>
+      </c>
+      <c r="Q146">
+        <v>-0.17249999999999999</v>
+      </c>
+      <c r="R146">
+        <v>5.2426E-2</v>
+      </c>
+      <c r="S146" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>137</v>
+      </c>
+      <c r="B147" t="s">
+        <v>138</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D147" t="s">
+        <v>41</v>
+      </c>
+      <c r="E147">
+        <v>-18.429099999999998</v>
+      </c>
+      <c r="F147">
+        <v>44.477319907418462</v>
+      </c>
+      <c r="G147">
+        <v>0.24475778560940423</v>
+      </c>
+      <c r="H147" t="s">
+        <v>119</v>
+      </c>
+      <c r="I147">
+        <v>-40.478200000000001</v>
+      </c>
+      <c r="J147">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="K147">
+        <v>21.965</v>
+      </c>
+      <c r="L147" t="s">
+        <v>140</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>-1017.75</v>
+      </c>
+      <c r="O147">
+        <v>5.3948</v>
+      </c>
+      <c r="P147">
+        <v>0.55937999999999999</v>
+      </c>
+      <c r="Q147">
+        <v>-4.6711</v>
+      </c>
+      <c r="R147">
+        <v>0.85175000000000001</v>
+      </c>
+      <c r="S147" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>141</v>
+      </c>
+      <c r="B148" t="s">
+        <v>142</v>
+      </c>
+      <c r="C148" s="3"/>
+      <c r="D148" t="s">
+        <v>42</v>
+      </c>
+      <c r="E148">
+        <v>-23.184699999999999</v>
+      </c>
+      <c r="F148">
+        <v>88.949867570211666</v>
+      </c>
+      <c r="G148">
+        <v>2.0807017056054762</v>
+      </c>
+      <c r="H148" t="s">
+        <v>119</v>
+      </c>
+      <c r="I148">
+        <v>-45.356900000000003</v>
+      </c>
+      <c r="J148">
+        <v>7.14</v>
+      </c>
+      <c r="K148">
+        <v>15.032999999999999</v>
+      </c>
+      <c r="L148" t="s">
+        <v>143</v>
+      </c>
+      <c r="M148">
+        <v>4</v>
+      </c>
+      <c r="N148">
+        <v>-984.33</v>
+      </c>
+      <c r="O148">
+        <v>9.8810000000000002</v>
+      </c>
+      <c r="P148">
+        <v>0.31857999999999997</v>
+      </c>
+      <c r="Q148">
+        <v>-5.7722999999999898</v>
+      </c>
+      <c r="R148">
+        <v>1.92778</v>
+      </c>
+      <c r="S148" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>
